--- a/outputs-r202/f__WCHB1-69.xlsx
+++ b/outputs-r202/f__WCHB1-69.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -537,6 +542,11 @@
           <t>g__F23-D06</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>g__F23-D06</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -579,6 +589,11 @@
           <t>g__F23-D06</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>g__F23-D06</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -621,6 +636,11 @@
           <t>g__F23-D06</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>g__F23-D06</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -663,6 +683,11 @@
           <t>g__F23-D06</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>g__F23-D06</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -705,6 +730,11 @@
           <t>g__F23-D06</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>g__F23-D06</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -747,6 +777,11 @@
           <t>g__F23-D06</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>g__F23-D06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -785,6 +820,11 @@
         <v>0.9891553098383399</v>
       </c>
       <c r="L8" t="inlineStr">
+        <is>
+          <t>g__UBA1756</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>g__UBA1756</t>
         </is>
